--- a/data/trans_orig/P16A_n_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A902FF71-493C-4523-A3F1-AB7F766D25E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59E28926-748D-4909-B0B1-69AA551A862C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BFA9E9FC-642B-4AE9-AF5C-BED76D02B900}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCFE765F-253A-4F2B-9EDC-3E455A55679A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="307">
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>33,41%</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>66,59%</t>
   </si>
   <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
   </si>
   <si>
     <t>58,54%</t>
   </si>
   <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>9,44%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
   </si>
   <si>
     <t>86,44%</t>
   </si>
   <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>12,24%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>80,41%</t>
   </si>
   <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>17,46%</t>
   </si>
   <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
   </si>
   <si>
     <t>82,54%</t>
   </si>
   <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,73 +311,73 @@
     <t>48,47%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
   </si>
   <si>
     <t>61,73%</t>
   </si>
   <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
   </si>
   <si>
     <t>51,53%</t>
   </si>
   <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
   </si>
   <si>
     <t>38,27%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
   </si>
   <si>
     <t>22,06%</t>
@@ -386,31 +386,31 @@
     <t>20,69%</t>
   </si>
   <si>
-    <t>23,59%</t>
+    <t>23,53%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>72,0%</t>
   </si>
   <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>77,94%</t>
   </si>
   <si>
-    <t>76,41%</t>
+    <t>76,47%</t>
   </si>
   <si>
     <t>79,31%</t>
@@ -419,61 +419,61 @@
     <t>13,04%</t>
   </si>
   <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
   </si>
   <si>
     <t>82,22%</t>
   </si>
   <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
   </si>
   <si>
     <t>25,26%</t>
   </si>
   <si>
-    <t>23,73%</t>
+    <t>23,74%</t>
   </si>
   <si>
     <t>26,83%</t>
@@ -482,7 +482,10 @@
     <t>40,02%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
   </si>
   <si>
     <t>32,78%</t>
@@ -500,13 +503,16 @@
     <t>73,17%</t>
   </si>
   <si>
-    <t>76,27%</t>
+    <t>76,26%</t>
   </si>
   <si>
     <t>59,98%</t>
   </si>
   <si>
-    <t>58,35%</t>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
   </si>
   <si>
     <t>67,22%</t>
@@ -524,217 +530,217 @@
     <t>42,2%</t>
   </si>
   <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
   </si>
   <si>
     <t>60,0%</t>
   </si>
   <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
   </si>
   <si>
     <t>52,32%</t>
   </si>
   <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
   </si>
   <si>
     <t>40,0%</t>
   </si>
   <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
   </si>
   <si>
     <t>16,66%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
   </si>
   <si>
     <t>83,34%</t>
   </si>
   <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>80,83%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
   </si>
   <si>
     <t>82,08%</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
   </si>
   <si>
     <t>34,83%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>65,17%</t>
   </si>
   <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
   </si>
   <si>
     <t>70,96%</t>
   </si>
   <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
   </si>
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
@@ -743,217 +749,217 @@
     <t>50,83%</t>
   </si>
   <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
   </si>
   <si>
     <t>67,88%</t>
   </si>
   <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
   </si>
   <si>
     <t>61,18%</t>
   </si>
   <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
   </si>
   <si>
     <t>49,17%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
   </si>
   <si>
     <t>32,12%</t>
   </si>
   <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
   </si>
   <si>
     <t>38,82%</t>
   </si>
   <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
   </si>
   <si>
     <t>37,68%</t>
   </si>
   <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
   </si>
   <si>
     <t>32,07%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
   </si>
   <si>
     <t>73,77%</t>
   </si>
   <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>62,32%</t>
   </si>
   <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
   </si>
   <si>
     <t>67,93%</t>
   </si>
   <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>42,64%</t>
   </si>
   <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
   </si>
   <si>
     <t>36,63%</t>
   </si>
   <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>57,36%</t>
   </si>
   <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
   </si>
   <si>
     <t>63,37%</t>
   </si>
   <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE41E48-D7BC-4269-A705-322987B15B5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562F2B46-D0E4-48DF-B207-5C0AF02501E0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2032,7 +2038,7 @@
         <v>4949</v>
       </c>
       <c r="N14" s="7">
-        <v>5077126</v>
+        <v>5077127</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2083,7 +2089,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5968AF-2C4B-4453-BFDE-0FD639381584}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E935844-8B16-41FB-A0E3-7488C5AC63BE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2723,10 +2729,10 @@
         <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>2100</v>
@@ -2735,13 +2741,13 @@
         <v>2286174</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2762,13 @@
         <v>2555977</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1978</v>
@@ -2771,13 +2777,13 @@
         <v>2131861</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>4396</v>
@@ -2786,13 +2792,13 @@
         <v>4687838</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46243FD9-D494-4346-AADC-5061DA6BFACC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1ADAA9-5DC1-44D7-AEC8-C3BB84B05247}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2890,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2991,13 +2997,13 @@
         <v>318353</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>519</v>
@@ -3006,13 +3012,13 @@
         <v>596752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>856</v>
@@ -3021,13 +3027,13 @@
         <v>915104</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3048,13 @@
         <v>435994</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>373</v>
@@ -3057,13 +3063,13 @@
         <v>397908</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>798</v>
@@ -3072,13 +3078,13 @@
         <v>833903</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3152,13 @@
         <v>366582</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>482</v>
@@ -3161,13 +3167,13 @@
         <v>528372</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>830</v>
@@ -3176,13 +3182,13 @@
         <v>894955</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3203,13 @@
         <v>1709803</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1426</v>
@@ -3212,13 +3218,13 @@
         <v>1459928</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3030</v>
@@ -3227,13 +3233,13 @@
         <v>3169730</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,13 +3307,13 @@
         <v>91133</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>97</v>
@@ -3316,13 +3322,13 @@
         <v>105277</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -3331,13 +3337,13 @@
         <v>196409</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3358,13 @@
         <v>455753</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>429</v>
@@ -3367,13 +3373,13 @@
         <v>443863</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>849</v>
@@ -3382,13 +3388,13 @@
         <v>899617</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3462,13 @@
         <v>776068</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>1098</v>
@@ -3471,13 +3477,13 @@
         <v>1230401</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>1864</v>
@@ -3486,13 +3492,13 @@
         <v>2006468</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3513,13 @@
         <v>2601550</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>2228</v>
@@ -3522,13 +3528,13 @@
         <v>2301699</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>4677</v>
@@ -3537,13 +3543,13 @@
         <v>4903250</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3618,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01CFF1D-F159-4E0E-B6AE-23741E0AACDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBB04A1-0FA9-4C42-A360-D3690CCC37A3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3635,7 +3641,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3742,13 +3748,13 @@
         <v>275307</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>1013</v>
@@ -3757,13 +3763,13 @@
         <v>567484</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>1394</v>
@@ -3772,13 +3778,13 @@
         <v>842790</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,13 +3799,13 @@
         <v>266327</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>414</v>
@@ -3808,13 +3814,13 @@
         <v>268469</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>724</v>
@@ -3823,13 +3829,13 @@
         <v>534796</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,28 +3903,28 @@
         <v>567030</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>1142</v>
       </c>
       <c r="I7" s="7">
-        <v>847571</v>
+        <v>847572</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>1770</v>
@@ -3927,13 +3933,13 @@
         <v>1414602</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3954,13 @@
         <v>1594992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>1779</v>
@@ -3963,13 +3969,13 @@
         <v>1401949</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>3143</v>
@@ -3978,13 +3984,13 @@
         <v>2996941</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,7 +4017,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4052,13 +4058,13 @@
         <v>166454</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>318</v>
@@ -4067,13 +4073,13 @@
         <v>204809</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>512</v>
@@ -4082,13 +4088,13 @@
         <v>371263</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4109,13 @@
         <v>506585</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>686</v>
@@ -4118,13 +4124,13 @@
         <v>509077</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>1173</v>
@@ -4133,13 +4139,13 @@
         <v>1015663</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,16 +4210,16 @@
         <v>1203</v>
       </c>
       <c r="D13" s="7">
-        <v>1008791</v>
+        <v>1008790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>2473</v>
@@ -4222,13 +4228,13 @@
         <v>1619864</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>3676</v>
@@ -4237,13 +4243,13 @@
         <v>2628655</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4264,13 @@
         <v>2367904</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>2879</v>
@@ -4273,28 +4279,28 @@
         <v>2179496</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>5040</v>
       </c>
       <c r="N14" s="7">
-        <v>4547400</v>
+        <v>4547399</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4312,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4342,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A_n_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59E28926-748D-4909-B0B1-69AA551A862C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C8B411-4188-47A6-8DC7-F015AF3F5CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCFE765F-253A-4F2B-9EDC-3E455A55679A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79DDFAD9-DB42-4703-B78A-CF743078E267}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -77,25 +77,25 @@
     <t>33,41%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>39,43%</t>
+    <t>39,54%</t>
   </si>
   <si>
     <t>43,49%</t>
@@ -107,19 +107,19 @@
     <t>66,59%</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
   </si>
   <si>
     <t>58,54%</t>
@@ -128,7 +128,7 @@
     <t>56,51%</t>
   </si>
   <si>
-    <t>60,57%</t>
+    <t>60,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,16 +140,16 @@
     <t>9,44%</t>
   </si>
   <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>16,16%</t>
+    <t>16,17%</t>
   </si>
   <si>
     <t>20,0%</t>
@@ -158,19 +158,19 @@
     <t>13,56%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>82,05%</t>
@@ -179,16 +179,16 @@
     <t>80,0%</t>
   </si>
   <si>
-    <t>83,84%</t>
+    <t>83,83%</t>
   </si>
   <si>
     <t>86,44%</t>
   </si>
   <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>12,24%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
   </si>
   <si>
     <t>80,41%</t>
   </si>
   <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
   </si>
   <si>
     <t>17,46%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>82,54%</t>
   </si>
   <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,436 +311,436 @@
     <t>48,47%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
   </si>
   <si>
     <t>61,73%</t>
   </si>
   <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
   </si>
   <si>
     <t>51,53%</t>
   </si>
   <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
   </si>
   <si>
     <t>38,27%</t>
   </si>
   <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
   </si>
   <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
   </si>
   <si>
     <t>83,26%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
   </si>
   <si>
     <t>72,0%</t>
   </si>
   <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>77,94%</t>
   </si>
   <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
   </si>
   <si>
     <t>13,04%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
   </si>
   <si>
     <t>86,96%</t>
   </si>
   <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
   </si>
   <si>
     <t>82,22%</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>25,26%</t>
   </si>
   <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
   </si>
   <si>
     <t>40,02%</t>
   </si>
   <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
   </si>
   <si>
     <t>32,78%</t>
   </si>
   <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
   </si>
   <si>
     <t>74,74%</t>
   </si>
   <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>59,98%</t>
   </si>
   <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
   </si>
   <si>
     <t>67,22%</t>
   </si>
   <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>42,2%</t>
   </si>
   <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>60,0%</t>
   </si>
   <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
   </si>
   <si>
     <t>52,32%</t>
   </si>
   <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>57,8%</t>
   </si>
   <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
   </si>
   <si>
     <t>40,0%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>17,65%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
   </si>
   <si>
     <t>26,57%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>82,35%</t>
   </si>
   <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>73,43%</t>
   </si>
   <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
   </si>
   <si>
     <t>16,66%</t>
   </si>
   <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
   </si>
   <si>
     <t>17,92%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
   </si>
   <si>
     <t>83,34%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>80,83%</t>
   </si>
   <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>82,08%</t>
   </si>
   <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>22,98%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
   </si>
   <si>
     <t>34,83%</t>
   </si>
   <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
   </si>
   <si>
     <t>29,04%</t>
   </si>
   <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
   </si>
   <si>
     <t>77,02%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
   </si>
   <si>
     <t>65,17%</t>
   </si>
   <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
   </si>
   <si>
     <t>70,96%</t>
   </si>
   <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
   </si>
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1371,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{562F2B46-D0E4-48DF-B207-5C0AF02501E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0EADE2-0213-43AE-BB15-8684EFD82E06}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1698,7 +1698,7 @@
         <v>1487</v>
       </c>
       <c r="D8" s="7">
-        <v>1533495</v>
+        <v>1533496</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1749,7 +1749,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2008,7 +2008,7 @@
         <v>2630</v>
       </c>
       <c r="D14" s="7">
-        <v>2704443</v>
+        <v>2704442</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2059,7 +2059,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2122,7 +2122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E935844-8B16-41FB-A0E3-7488C5AC63BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC3A6CE-E747-43A4-A3F7-D606824A8DD3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2873,7 +2873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B1ADAA9-5DC1-44D7-AEC8-C3BB84B05247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3F3C2B-9021-4FDF-ADA6-95D50208DCFD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3624,7 +3624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBB04A1-0FA9-4C42-A360-D3690CCC37A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB1155B-2F17-4C31-8400-02BB3BE8D45F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A_n_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C8B411-4188-47A6-8DC7-F015AF3F5CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F77556CA-2F7A-476F-AE18-4917FD599C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{79DDFAD9-DB42-4703-B78A-CF743078E267}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{101EAF2D-4B1C-4805-8CF9-0422177C4C21}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>33,41%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>47,77%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
   </si>
   <si>
     <t>41,46%</t>
   </si>
   <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>66,59%</t>
   </si>
   <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
   </si>
   <si>
     <t>52,23%</t>
   </si>
   <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>58,54%</t>
   </si>
   <si>
-    <t>56,51%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>9,44%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>86,44%</t>
   </si>
   <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>12,24%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>80,41%</t>
   </si>
   <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>17,46%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
   </si>
   <si>
     <t>82,54%</t>
   </si>
   <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
   </si>
   <si>
     <t>70,21%</t>
   </si>
   <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,55 +311,55 @@
     <t>48,47%</t>
   </si>
   <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>51,63%</t>
   </si>
   <si>
     <t>61,73%</t>
   </si>
   <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>56,14%</t>
   </si>
   <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
   </si>
   <si>
     <t>51,53%</t>
   </si>
   <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>38,27%</t>
   </si>
   <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
   </si>
   <si>
     <t>43,86%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
   </si>
   <si>
     <t>16,74%</t>
@@ -368,598 +368,592 @@
     <t>15,12%</t>
   </si>
   <si>
-    <t>18,79%</t>
+    <t>18,56%</t>
   </si>
   <si>
     <t>28,0%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
   </si>
   <si>
     <t>22,06%</t>
   </si>
   <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
   </si>
   <si>
     <t>54,8%</t>
   </si>
   <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
   </si>
   <si>
     <t>45,2%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
+    <t>53,51%</t>
   </si>
   <si>
     <t>32,12%</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>38,82%</t>
   </si>
   <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
   </si>
   <si>
     <t>37,68%</t>
   </si>
   <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>32,07%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
   </si>
   <si>
     <t>73,77%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
   </si>
   <si>
     <t>62,32%</t>
   </si>
   <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
   </si>
   <si>
     <t>67,93%</t>
   </si>
   <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
   </si>
   <si>
     <t>26,77%</t>
   </si>
   <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>75,27%</t>
   </si>
   <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
   </si>
   <si>
     <t>73,23%</t>
   </si>
   <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
   </si>
   <si>
     <t>29,88%</t>
   </si>
   <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
   <si>
     <t>42,64%</t>
   </si>
   <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
   </si>
   <si>
     <t>36,63%</t>
   </si>
   <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
   </si>
   <si>
     <t>70,12%</t>
   </si>
   <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
   </si>
   <si>
     <t>57,36%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
   </si>
   <si>
     <t>63,37%</t>
   </si>
   <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A0EADE2-0213-43AE-BB15-8684EFD82E06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA8AE93-B724-42D6-A6E1-793E3652AF99}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1698,7 +1692,7 @@
         <v>1487</v>
       </c>
       <c r="D8" s="7">
-        <v>1533496</v>
+        <v>1533495</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1749,7 +1743,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2008,7 +2002,7 @@
         <v>2630</v>
       </c>
       <c r="D14" s="7">
-        <v>2704442</v>
+        <v>2704443</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2038,7 +2032,7 @@
         <v>4949</v>
       </c>
       <c r="N14" s="7">
-        <v>5077127</v>
+        <v>5077126</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2059,7 +2053,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2089,7 +2083,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2122,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC3A6CE-E747-43A4-A3F7-D606824A8DD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB03147-C73D-40A5-B35D-155F8C836BAA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2729,10 +2723,10 @@
         <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>2100</v>
@@ -2741,13 +2735,13 @@
         <v>2286174</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2756,13 @@
         <v>2555977</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1978</v>
@@ -2777,13 +2771,13 @@
         <v>2131861</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>4396</v>
@@ -2792,13 +2786,13 @@
         <v>4687838</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3F3C2B-9021-4FDF-ADA6-95D50208DCFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B867D00-E80E-4E09-A9B5-E6753B3ACB99}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2890,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2997,13 +2991,13 @@
         <v>318353</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>519</v>
@@ -3012,13 +3006,13 @@
         <v>596752</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>856</v>
@@ -3027,13 +3021,13 @@
         <v>915104</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3042,13 @@
         <v>435994</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>373</v>
@@ -3063,13 +3057,13 @@
         <v>397908</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>798</v>
@@ -3078,13 +3072,13 @@
         <v>833903</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,13 +3146,13 @@
         <v>366582</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>482</v>
@@ -3167,13 +3161,13 @@
         <v>528372</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>830</v>
@@ -3182,13 +3176,13 @@
         <v>894955</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,13 +3197,13 @@
         <v>1709803</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>1426</v>
@@ -3218,13 +3212,13 @@
         <v>1459928</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>3030</v>
@@ -3233,13 +3227,13 @@
         <v>3169730</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,13 +3301,13 @@
         <v>91133</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>97</v>
@@ -3322,13 +3316,13 @@
         <v>105277</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>178</v>
@@ -3337,13 +3331,13 @@
         <v>196409</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,13 +3352,13 @@
         <v>455753</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>429</v>
@@ -3373,13 +3367,13 @@
         <v>443863</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>849</v>
@@ -3388,13 +3382,13 @@
         <v>899617</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3462,13 +3456,13 @@
         <v>776068</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>1098</v>
@@ -3477,13 +3471,13 @@
         <v>1230401</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>1864</v>
@@ -3492,13 +3486,13 @@
         <v>2006468</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3507,13 @@
         <v>2601550</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>2228</v>
@@ -3528,13 +3522,13 @@
         <v>2301699</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>4677</v>
@@ -3543,13 +3537,13 @@
         <v>4903250</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3624,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB1155B-2F17-4C31-8400-02BB3BE8D45F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9556E46A-663A-4387-9794-8284DAE4FFB9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3641,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3748,13 +3742,13 @@
         <v>275307</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>1013</v>
@@ -3763,13 +3757,13 @@
         <v>567484</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>1394</v>
@@ -3778,13 +3772,13 @@
         <v>842790</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3793,13 @@
         <v>266327</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>414</v>
@@ -3814,13 +3808,13 @@
         <v>268469</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>724</v>
@@ -3829,13 +3823,13 @@
         <v>534796</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,28 +3897,28 @@
         <v>567030</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>1142</v>
       </c>
       <c r="I7" s="7">
-        <v>847572</v>
+        <v>847571</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>1770</v>
@@ -3933,13 +3927,13 @@
         <v>1414602</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3948,13 @@
         <v>1594992</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>1779</v>
@@ -3969,13 +3963,13 @@
         <v>1401949</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>3143</v>
@@ -3984,13 +3978,13 @@
         <v>2996941</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +4011,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4058,13 +4052,13 @@
         <v>166454</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>318</v>
@@ -4073,13 +4067,13 @@
         <v>204809</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>512</v>
@@ -4088,13 +4082,13 @@
         <v>371263</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4103,13 @@
         <v>506585</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>686</v>
@@ -4124,13 +4118,13 @@
         <v>509077</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>1173</v>
@@ -4139,13 +4133,13 @@
         <v>1015663</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,16 +4204,16 @@
         <v>1203</v>
       </c>
       <c r="D13" s="7">
-        <v>1008790</v>
+        <v>1008791</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>2473</v>
@@ -4228,13 +4222,13 @@
         <v>1619864</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>3676</v>
@@ -4243,13 +4237,13 @@
         <v>2628655</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4258,13 @@
         <v>2367904</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H14" s="7">
         <v>2879</v>
@@ -4279,28 +4273,28 @@
         <v>2179496</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>5040</v>
       </c>
       <c r="N14" s="7">
-        <v>4547399</v>
+        <v>4547400</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,7 +4306,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4342,7 +4336,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A_n_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F77556CA-2F7A-476F-AE18-4917FD599C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAAED2AC-8F59-4EBE-9EFF-81C4704673EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{101EAF2D-4B1C-4805-8CF9-0422177C4C21}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C7307850-F05A-4754-9C90-3D347A1D6E4E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -740,220 +740,214 @@
     <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AA8AE93-B724-42D6-A6E1-793E3652AF99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B5F022-13B5-4DE5-963E-5A9DDCDCFD45}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1516,7 +1510,7 @@
         <v>971</v>
       </c>
       <c r="N4" s="7">
-        <v>972933</v>
+        <v>972932</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1618,7 +1612,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1692,7 +1686,7 @@
         <v>1487</v>
       </c>
       <c r="D8" s="7">
-        <v>1533495</v>
+        <v>1533496</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1743,7 +1737,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2002,7 +1996,7 @@
         <v>2630</v>
       </c>
       <c r="D14" s="7">
-        <v>2704443</v>
+        <v>2704442</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2017,7 +2011,7 @@
         <v>2319</v>
       </c>
       <c r="I14" s="7">
-        <v>2372684</v>
+        <v>2372683</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2032,7 +2026,7 @@
         <v>4949</v>
       </c>
       <c r="N14" s="7">
-        <v>5077126</v>
+        <v>5077127</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2053,7 +2047,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2068,7 +2062,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2083,7 +2077,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2116,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB03147-C73D-40A5-B35D-155F8C836BAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E20B333-AE4F-4BAF-8C82-343BD2647164}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2252,7 +2246,7 @@
         <v>774</v>
       </c>
       <c r="I4" s="7">
-        <v>825860</v>
+        <v>825861</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2354,7 +2348,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2628,7 +2622,7 @@
         <v>704</v>
       </c>
       <c r="N11" s="7">
-        <v>772745</v>
+        <v>772746</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>140</v>
@@ -2679,7 +2673,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2867,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B867D00-E80E-4E09-A9B5-E6753B3ACB99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D29166-EB29-4F5F-99F6-320F538B3635}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3328,7 +3322,7 @@
         <v>178</v>
       </c>
       <c r="N10" s="7">
-        <v>196409</v>
+        <v>196410</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>202</v>
@@ -3430,7 +3424,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3618,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9556E46A-663A-4387-9794-8284DAE4FFB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B283D32-FDC0-43F1-9A76-F46634C77B45}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3739,7 +3733,7 @@
         <v>381</v>
       </c>
       <c r="D4" s="7">
-        <v>275307</v>
+        <v>260578</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>233</v>
@@ -3754,7 +3748,7 @@
         <v>1013</v>
       </c>
       <c r="I4" s="7">
-        <v>567484</v>
+        <v>513374</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>236</v>
@@ -3769,7 +3763,7 @@
         <v>1394</v>
       </c>
       <c r="N4" s="7">
-        <v>842790</v>
+        <v>773953</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>239</v>
@@ -3790,7 +3784,7 @@
         <v>310</v>
       </c>
       <c r="D5" s="7">
-        <v>266327</v>
+        <v>254360</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>242</v>
@@ -3805,7 +3799,7 @@
         <v>414</v>
       </c>
       <c r="I5" s="7">
-        <v>268469</v>
+        <v>242134</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>245</v>
@@ -3820,7 +3814,7 @@
         <v>724</v>
       </c>
       <c r="N5" s="7">
-        <v>534796</v>
+        <v>496493</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>248</v>
@@ -3841,7 +3835,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3856,7 +3850,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3871,7 +3865,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3894,7 +3888,7 @@
         <v>628</v>
       </c>
       <c r="D7" s="7">
-        <v>567030</v>
+        <v>538991</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>251</v>
@@ -3909,7 +3903,7 @@
         <v>1142</v>
       </c>
       <c r="I7" s="7">
-        <v>847571</v>
+        <v>880613</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>254</v>
@@ -3924,7 +3918,7 @@
         <v>1770</v>
       </c>
       <c r="N7" s="7">
-        <v>1414602</v>
+        <v>1419604</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>257</v>
@@ -3945,7 +3939,7 @@
         <v>1364</v>
       </c>
       <c r="D8" s="7">
-        <v>1594992</v>
+        <v>1751336</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>260</v>
@@ -3960,7 +3954,7 @@
         <v>1779</v>
       </c>
       <c r="I8" s="7">
-        <v>1401949</v>
+        <v>1357210</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>263</v>
@@ -3975,7 +3969,7 @@
         <v>3143</v>
       </c>
       <c r="N8" s="7">
-        <v>2996941</v>
+        <v>3108546</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>266</v>
@@ -3996,7 +3990,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4011,7 +4005,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4026,7 +4020,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4049,7 +4043,7 @@
         <v>194</v>
       </c>
       <c r="D10" s="7">
-        <v>166454</v>
+        <v>159208</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>269</v>
@@ -4064,7 +4058,7 @@
         <v>318</v>
       </c>
       <c r="I10" s="7">
-        <v>204809</v>
+        <v>188931</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>272</v>
@@ -4079,7 +4073,7 @@
         <v>512</v>
       </c>
       <c r="N10" s="7">
-        <v>371263</v>
+        <v>348138</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>275</v>
@@ -4100,7 +4094,7 @@
         <v>487</v>
       </c>
       <c r="D11" s="7">
-        <v>506585</v>
+        <v>487415</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>278</v>
@@ -4115,7 +4109,7 @@
         <v>686</v>
       </c>
       <c r="I11" s="7">
-        <v>509077</v>
+        <v>471532</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>281</v>
@@ -4130,7 +4124,7 @@
         <v>1173</v>
       </c>
       <c r="N11" s="7">
-        <v>1015663</v>
+        <v>958948</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>284</v>
@@ -4151,7 +4145,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4166,7 +4160,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4181,7 +4175,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4204,46 +4198,46 @@
         <v>1203</v>
       </c>
       <c r="D13" s="7">
-        <v>1008791</v>
+        <v>958778</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>2473</v>
       </c>
       <c r="I13" s="7">
-        <v>1619864</v>
+        <v>1582918</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>3676</v>
       </c>
       <c r="N13" s="7">
-        <v>2628655</v>
+        <v>2541696</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,46 +4249,46 @@
         <v>2161</v>
       </c>
       <c r="D14" s="7">
-        <v>2367904</v>
+        <v>2493111</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>2879</v>
       </c>
       <c r="I14" s="7">
-        <v>2179496</v>
+        <v>2070876</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M14" s="7">
         <v>5040</v>
       </c>
       <c r="N14" s="7">
-        <v>4547400</v>
+        <v>4563987</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4306,7 +4300,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4321,7 +4315,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4336,7 +4330,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
